--- a/RealProject/kids_parents_from_kids_debug.xlsx
+++ b/RealProject/kids_parents_from_kids_debug.xlsx
@@ -2047,7 +2047,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>A5</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>A5</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -2397,7 +2397,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>A5</t>
         </is>
       </c>
       <c r="E83" t="inlineStr"/>
@@ -2418,7 +2418,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>A5</t>
         </is>
       </c>
       <c r="E84" t="inlineStr"/>
@@ -3415,7 +3415,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>A5</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -3572,7 +3572,11 @@
           <t>Ahlam Oukiaden Nhari</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr"/>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
+      </c>
       <c r="E132" t="inlineStr"/>
     </row>
     <row r="133">
@@ -3589,7 +3593,11 @@
           <t>Ahlam Oukiaden Nhari</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr"/>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
+      </c>
       <c r="E133" t="inlineStr"/>
     </row>
     <row r="134">
@@ -3606,7 +3614,11 @@
           <t>Ahlam Oukiaden Nhari</t>
         </is>
       </c>
-      <c r="D134" t="inlineStr"/>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
+      </c>
       <c r="E134" t="inlineStr"/>
     </row>
     <row r="135">
@@ -5056,7 +5068,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>A5</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -5695,7 +5707,7 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>A5</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
@@ -6125,7 +6137,7 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>A5</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
@@ -6150,7 +6162,7 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>A5</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
@@ -6225,7 +6237,7 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>A5</t>
         </is>
       </c>
       <c r="E243" t="inlineStr"/>
@@ -6246,7 +6258,7 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>A5</t>
         </is>
       </c>
       <c r="E244" t="inlineStr"/>

--- a/RealProject/kids_parents_from_kids_debug.xlsx
+++ b/RealProject/kids_parents_from_kids_debug.xlsx
@@ -731,11 +731,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>623914891</t>
-        </is>
-      </c>
+      <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -756,11 +752,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>016097264718</t>
-        </is>
-      </c>
+      <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -781,11 +773,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>015782364891</t>
-        </is>
-      </c>
+      <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -848,11 +836,7 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>01608531784</t>
-        </is>
-      </c>
+      <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -915,11 +899,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>01637020882</t>
-        </is>
-      </c>
+      <c r="E22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -940,11 +920,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>01637020882</t>
-        </is>
-      </c>
+      <c r="E23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -965,11 +941,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>01637020882</t>
-        </is>
-      </c>
+      <c r="E24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -990,11 +962,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>630323444</t>
-        </is>
-      </c>
+      <c r="E25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1036,11 +1004,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>015774239272</t>
-        </is>
-      </c>
+      <c r="E27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1061,11 +1025,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>01636052152</t>
-        </is>
-      </c>
+      <c r="E28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1086,11 +1046,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>644280857</t>
-        </is>
-      </c>
+      <c r="E29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1111,11 +1067,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>01627270413</t>
-        </is>
-      </c>
+      <c r="E30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1136,11 +1088,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>01627270413</t>
-        </is>
-      </c>
+      <c r="E31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1161,11 +1109,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>632334540</t>
-        </is>
-      </c>
+      <c r="E32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1228,11 +1172,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>015778648500</t>
-        </is>
-      </c>
+      <c r="E35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1253,11 +1193,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>015778648500</t>
-        </is>
-      </c>
+      <c r="E36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1278,11 +1214,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>01629347971</t>
-        </is>
-      </c>
+      <c r="E37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1303,11 +1235,7 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>33561831</t>
-        </is>
-      </c>
+      <c r="E38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1328,11 +1256,7 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>684608600</t>
-        </is>
-      </c>
+      <c r="E39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1353,11 +1277,7 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>33561831</t>
-        </is>
-      </c>
+      <c r="E40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1378,11 +1298,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>015755184201</t>
-        </is>
-      </c>
+      <c r="E41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1403,11 +1319,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>631130470</t>
-        </is>
-      </c>
+      <c r="E42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1428,11 +1340,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>88757701</t>
-        </is>
-      </c>
+      <c r="E43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1516,11 +1424,7 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>83039184</t>
-        </is>
-      </c>
+      <c r="E47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1541,11 +1445,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>621205280</t>
-        </is>
-      </c>
+      <c r="E48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1566,11 +1466,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>015252615611</t>
-        </is>
-      </c>
+      <c r="E49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1591,11 +1487,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>015202764625</t>
-        </is>
-      </c>
+      <c r="E50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1616,11 +1508,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>49137956</t>
-        </is>
-      </c>
+      <c r="E51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1641,11 +1529,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>49137956</t>
-        </is>
-      </c>
+      <c r="E52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1666,11 +1550,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>015731354679</t>
-        </is>
-      </c>
+      <c r="E53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1691,11 +1571,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>015731354679</t>
-        </is>
-      </c>
+      <c r="E54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1716,11 +1592,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>015731354679</t>
-        </is>
-      </c>
+      <c r="E55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1825,11 +1697,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>015751704161</t>
-        </is>
-      </c>
+      <c r="E60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -1850,11 +1718,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>648075411</t>
-        </is>
-      </c>
+      <c r="E61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -1875,11 +1739,7 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>648075411</t>
-        </is>
-      </c>
+      <c r="E62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -1900,11 +1760,7 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>648075411</t>
-        </is>
-      </c>
+      <c r="E63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -1925,11 +1781,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>015228267087</t>
-        </is>
-      </c>
+      <c r="E64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -1950,11 +1802,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>015228267087</t>
-        </is>
-      </c>
+      <c r="E65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -1975,11 +1823,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>015228267087</t>
-        </is>
-      </c>
+      <c r="E66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -2000,11 +1844,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>015228267087</t>
-        </is>
-      </c>
+      <c r="E67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -2025,11 +1865,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>620912784</t>
-        </is>
-      </c>
+      <c r="E68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -2050,11 +1886,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>82012638</t>
-        </is>
-      </c>
+      <c r="E69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -2075,11 +1907,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>86624581</t>
-        </is>
-      </c>
+      <c r="E70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -2100,11 +1928,7 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>015228127376</t>
-        </is>
-      </c>
+      <c r="E71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -2125,11 +1949,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>015737878177</t>
-        </is>
-      </c>
+      <c r="E72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -2150,11 +1970,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>015737878177</t>
-        </is>
-      </c>
+      <c r="E73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -2175,11 +1991,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>73515681</t>
-        </is>
-      </c>
+      <c r="E74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -2200,11 +2012,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>73515681</t>
-        </is>
-      </c>
+      <c r="E75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -2225,11 +2033,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>01608531784</t>
-        </is>
-      </c>
+      <c r="E76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -2250,11 +2054,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>015758484473</t>
-        </is>
-      </c>
+      <c r="E77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -2275,11 +2075,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>015758484473</t>
-        </is>
-      </c>
+      <c r="E78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -2300,11 +2096,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>015773665575</t>
-        </is>
-      </c>
+      <c r="E79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -2325,11 +2117,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>015773665575</t>
-        </is>
-      </c>
+      <c r="E80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -2350,11 +2138,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>015773665575</t>
-        </is>
-      </c>
+      <c r="E81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -2375,11 +2159,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>78354446</t>
-        </is>
-      </c>
+      <c r="E82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -2392,7 +2172,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Said Chochouh</t>
+          <t>Said Chochouh und Ouafae Barzizoui</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2413,7 +2193,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Said Chochouh</t>
+          <t>Said Chochouh und Ouafae Barzizoui</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2442,11 +2222,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>72268205</t>
-        </is>
-      </c>
+      <c r="E85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -2467,11 +2243,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>72268205</t>
-        </is>
-      </c>
+      <c r="E86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -2492,11 +2264,7 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>72001140</t>
-        </is>
-      </c>
+      <c r="E87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -2517,11 +2285,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>72001140</t>
-        </is>
-      </c>
+      <c r="E88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -2542,11 +2306,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>72001140</t>
-        </is>
-      </c>
+      <c r="E89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -2567,11 +2327,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>657818946</t>
-        </is>
-      </c>
+      <c r="E90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -2592,11 +2348,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>657818946</t>
-        </is>
-      </c>
+      <c r="E91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -2617,11 +2369,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>738667380</t>
-        </is>
-      </c>
+      <c r="E92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -2642,11 +2390,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>738667380</t>
-        </is>
-      </c>
+      <c r="E93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -2667,11 +2411,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>738667380</t>
-        </is>
-      </c>
+      <c r="E94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -2692,11 +2432,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>015255709798</t>
-        </is>
-      </c>
+      <c r="E95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -2717,11 +2453,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>015255709798</t>
-        </is>
-      </c>
+      <c r="E96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -2763,11 +2495,7 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>015903020809</t>
-        </is>
-      </c>
+      <c r="E98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -2788,11 +2516,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>015903020809</t>
-        </is>
-      </c>
+      <c r="E99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -2813,11 +2537,7 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>015903020809</t>
-        </is>
-      </c>
+      <c r="E100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -2838,11 +2558,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>58638258</t>
-        </is>
-      </c>
+      <c r="E101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -2863,11 +2579,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>58638258</t>
-        </is>
-      </c>
+      <c r="E102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -2888,11 +2600,7 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>6 24640578</t>
-        </is>
-      </c>
+      <c r="E103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -2913,11 +2621,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>6 24640578</t>
-        </is>
-      </c>
+      <c r="E104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -2938,11 +2642,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>015906390487</t>
-        </is>
-      </c>
+      <c r="E105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -2963,11 +2663,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>015228352331</t>
-        </is>
-      </c>
+      <c r="E106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -2988,11 +2684,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>015228352331</t>
-        </is>
-      </c>
+      <c r="E107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -3034,11 +2726,7 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>51413553</t>
-        </is>
-      </c>
+      <c r="E109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -3080,11 +2768,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>621609954</t>
-        </is>
-      </c>
+      <c r="E111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -3105,11 +2789,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>01628501395</t>
-        </is>
-      </c>
+      <c r="E112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -3130,11 +2810,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>01628501395</t>
-        </is>
-      </c>
+      <c r="E113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -3155,11 +2831,7 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>015208548606</t>
-        </is>
-      </c>
+      <c r="E114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -3180,11 +2852,7 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>015208548606</t>
-        </is>
-      </c>
+      <c r="E115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -3268,11 +2936,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>01637884674</t>
-        </is>
-      </c>
+      <c r="E119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -3293,11 +2957,7 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>01637884674</t>
-        </is>
-      </c>
+      <c r="E120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -3318,11 +2978,7 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>01634522399</t>
-        </is>
-      </c>
+      <c r="E121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -3343,11 +2999,7 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>01634522399</t>
-        </is>
-      </c>
+      <c r="E122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -3368,11 +3020,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>01633904259</t>
-        </is>
-      </c>
+      <c r="E123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -3393,11 +3041,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>015771964912</t>
-        </is>
-      </c>
+      <c r="E124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -3418,11 +3062,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>015755280532</t>
-        </is>
-      </c>
+      <c r="E125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -3443,11 +3083,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>015755280532</t>
-        </is>
-      </c>
+      <c r="E126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -3552,11 +3188,7 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>01607918</t>
-        </is>
-      </c>
+      <c r="E131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -3640,11 +3272,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>630112288</t>
-        </is>
-      </c>
+      <c r="E135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -3665,11 +3293,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>630112288</t>
-        </is>
-      </c>
+      <c r="E136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -3690,11 +3314,7 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>86253175 / Vater 015731752857</t>
-        </is>
-      </c>
+      <c r="E137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -3715,11 +3335,7 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>86253175 / Vater 015731752857</t>
-        </is>
-      </c>
+      <c r="E138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -3740,11 +3356,7 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>682392891 / 666894717</t>
-        </is>
-      </c>
+      <c r="E139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -3765,11 +3377,7 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>682392891 / 666894717</t>
-        </is>
-      </c>
+      <c r="E140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -3790,11 +3398,7 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>682392891 / 666894717</t>
-        </is>
-      </c>
+      <c r="E141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -3815,11 +3419,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>78670630</t>
-        </is>
-      </c>
+      <c r="E142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -3840,11 +3440,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>78670630</t>
-        </is>
-      </c>
+      <c r="E143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -3865,11 +3461,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>015215810333</t>
-        </is>
-      </c>
+      <c r="E144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -3890,11 +3482,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>015215810333</t>
-        </is>
-      </c>
+      <c r="E145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -3915,11 +3503,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>015228266960</t>
-        </is>
-      </c>
+      <c r="E146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -3940,11 +3524,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>015228266960</t>
-        </is>
-      </c>
+      <c r="E147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -3965,11 +3545,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>015228266960</t>
-        </is>
-      </c>
+      <c r="E148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -3990,11 +3566,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>94388219</t>
-        </is>
-      </c>
+      <c r="E149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -4036,11 +3608,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>82665527</t>
-        </is>
-      </c>
+      <c r="E151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -4082,11 +3650,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>18007458</t>
-        </is>
-      </c>
+      <c r="E153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -4107,11 +3671,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>01607598117</t>
-        </is>
-      </c>
+      <c r="E154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -4132,11 +3692,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>01607598117</t>
-        </is>
-      </c>
+      <c r="E155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -4178,11 +3734,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>03375753</t>
-        </is>
-      </c>
+      <c r="E157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -4203,11 +3755,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>03375753</t>
-        </is>
-      </c>
+      <c r="E158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -4228,11 +3776,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>33839254</t>
-        </is>
-      </c>
+      <c r="E159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -4253,11 +3797,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>33839254</t>
-        </is>
-      </c>
+      <c r="E160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -4278,11 +3818,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>015735741208</t>
-        </is>
-      </c>
+      <c r="E161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -4324,11 +3860,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>01629136240</t>
-        </is>
-      </c>
+      <c r="E163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -4349,11 +3881,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>680895592</t>
-        </is>
-      </c>
+      <c r="E164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -4374,11 +3902,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>680895592</t>
-        </is>
-      </c>
+      <c r="E165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -4441,11 +3965,7 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>8817832</t>
-        </is>
-      </c>
+      <c r="E168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -4466,11 +3986,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>015231704789</t>
-        </is>
-      </c>
+      <c r="E169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -4491,11 +4007,7 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>015730836942</t>
-        </is>
-      </c>
+      <c r="E170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -4516,11 +4028,7 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>622047214</t>
-        </is>
-      </c>
+      <c r="E171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -4541,11 +4049,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>015901163595</t>
-        </is>
-      </c>
+      <c r="E172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -4566,11 +4070,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>015901163595</t>
-        </is>
-      </c>
+      <c r="E173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -4591,11 +4091,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>92011709</t>
-        </is>
-      </c>
+      <c r="E174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -4616,11 +4112,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>92011709</t>
-        </is>
-      </c>
+      <c r="E175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -4641,11 +4133,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>92011709</t>
-        </is>
-      </c>
+      <c r="E176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -4687,11 +4175,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>656478038</t>
-        </is>
-      </c>
+      <c r="E178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -4712,11 +4196,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>656478038</t>
-        </is>
-      </c>
+      <c r="E179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -4800,11 +4280,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>33641335</t>
-        </is>
-      </c>
+      <c r="E183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -4825,11 +4301,7 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>29489957</t>
-        </is>
-      </c>
+      <c r="E184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -4871,11 +4343,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>01623602124 / 652977162</t>
-        </is>
-      </c>
+      <c r="E186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -4896,11 +4364,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>01623602124 / 652977162</t>
-        </is>
-      </c>
+      <c r="E187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -4921,11 +4385,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>01629748646</t>
-        </is>
-      </c>
+      <c r="E188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -4946,11 +4406,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>72585043</t>
-        </is>
-      </c>
+      <c r="E189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -4971,11 +4427,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>72585043</t>
-        </is>
-      </c>
+      <c r="E190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -4996,11 +4448,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>662279838</t>
-        </is>
-      </c>
+      <c r="E191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -5021,11 +4469,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>015771992141 / 81037035</t>
-        </is>
-      </c>
+      <c r="E192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -5046,11 +4490,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>015771992141 / 81037035</t>
-        </is>
-      </c>
+      <c r="E193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -5071,11 +4511,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>28394342</t>
-        </is>
-      </c>
+      <c r="E194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -5096,11 +4532,7 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>01605212145</t>
-        </is>
-      </c>
+      <c r="E195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -5121,11 +4553,7 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>01632059013</t>
-        </is>
-      </c>
+      <c r="E196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -5146,11 +4574,7 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>01632059013</t>
-        </is>
-      </c>
+      <c r="E197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -5234,11 +4658,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>015738339240</t>
-        </is>
-      </c>
+      <c r="E201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -5259,11 +4679,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E202" t="inlineStr">
-        <is>
-          <t>015738339240</t>
-        </is>
-      </c>
+      <c r="E202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -5326,11 +4742,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E205" t="inlineStr">
-        <is>
-          <t>73126230</t>
-        </is>
-      </c>
+      <c r="E205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -5351,11 +4763,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E206" t="inlineStr">
-        <is>
-          <t>73126230</t>
-        </is>
-      </c>
+      <c r="E206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -5397,11 +4805,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E208" t="inlineStr">
-        <is>
-          <t>015174457532</t>
-        </is>
-      </c>
+      <c r="E208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -5422,11 +4826,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E209" t="inlineStr">
-        <is>
-          <t>78015492</t>
-        </is>
-      </c>
+      <c r="E209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -5447,11 +4847,7 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E210" t="inlineStr">
-        <is>
-          <t>78015492</t>
-        </is>
-      </c>
+      <c r="E210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -5472,11 +4868,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E211" t="inlineStr">
-        <is>
-          <t>79331020</t>
-        </is>
-      </c>
+      <c r="E211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -5497,11 +4889,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E212" t="inlineStr">
-        <is>
-          <t>79331020</t>
-        </is>
-      </c>
+      <c r="E212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -5522,11 +4910,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E213" t="inlineStr">
-        <is>
-          <t>46917705</t>
-        </is>
-      </c>
+      <c r="E213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -5568,11 +4952,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E215" t="inlineStr">
-        <is>
-          <t>46917705</t>
-        </is>
-      </c>
+      <c r="E215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -5635,11 +5015,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E218" t="inlineStr">
-        <is>
-          <t>0034632997890</t>
-        </is>
-      </c>
+      <c r="E218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -5660,11 +5036,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E219" t="inlineStr">
-        <is>
-          <t>01604263446</t>
-        </is>
-      </c>
+      <c r="E219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -5685,11 +5057,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E220" t="inlineStr">
-        <is>
-          <t>14901105</t>
-        </is>
-      </c>
+      <c r="E220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -5710,11 +5078,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E221" t="inlineStr">
-        <is>
-          <t>01626576151</t>
-        </is>
-      </c>
+      <c r="E221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -5735,11 +5099,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E222" t="inlineStr">
-        <is>
-          <t>14901105</t>
-        </is>
-      </c>
+      <c r="E222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -5802,11 +5162,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E225" t="inlineStr">
-        <is>
-          <t>657980622</t>
-        </is>
-      </c>
+      <c r="E225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -5827,11 +5183,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E226" t="inlineStr">
-        <is>
-          <t>657980622</t>
-        </is>
-      </c>
+      <c r="E226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -5852,11 +5204,7 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E227" t="inlineStr">
-        <is>
-          <t>015906544373</t>
-        </is>
-      </c>
+      <c r="E227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -5877,11 +5225,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E228" t="inlineStr">
-        <is>
-          <t>015757071531</t>
-        </is>
-      </c>
+      <c r="E228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -5902,11 +5246,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E229" t="inlineStr">
-        <is>
-          <t>645999275</t>
-        </is>
-      </c>
+      <c r="E229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -5927,11 +5267,7 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E230" t="inlineStr">
-        <is>
-          <t>645999275</t>
-        </is>
-      </c>
+      <c r="E230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -5973,11 +5309,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E232" t="inlineStr">
-        <is>
-          <t>33489258</t>
-        </is>
-      </c>
+      <c r="E232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -6019,11 +5351,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E234" t="inlineStr">
-        <is>
-          <t>662743519</t>
-        </is>
-      </c>
+      <c r="E234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -6065,11 +5393,7 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E236" t="inlineStr">
-        <is>
-          <t>95631978 / 96670608</t>
-        </is>
-      </c>
+      <c r="E236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -6090,11 +5414,7 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E237" t="inlineStr">
-        <is>
-          <t>95631978 / 96670608</t>
-        </is>
-      </c>
+      <c r="E237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -6115,11 +5435,7 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E238" t="inlineStr">
-        <is>
-          <t>27377930/78801311</t>
-        </is>
-      </c>
+      <c r="E238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -6140,11 +5456,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E239" t="inlineStr">
-        <is>
-          <t>685924977</t>
-        </is>
-      </c>
+      <c r="E239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -6165,11 +5477,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E240" t="inlineStr">
-        <is>
-          <t>685924977</t>
-        </is>
-      </c>
+      <c r="E240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" t="n">
@@ -6190,11 +5498,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E241" t="inlineStr">
-        <is>
-          <t>666999685</t>
-        </is>
-      </c>
+      <c r="E241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -6215,11 +5519,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E242" t="inlineStr">
-        <is>
-          <t>666999685</t>
-        </is>
-      </c>
+      <c r="E242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" t="n">
@@ -6282,11 +5582,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E245" t="inlineStr">
-        <is>
-          <t>015737806350</t>
-        </is>
-      </c>
+      <c r="E245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -6349,11 +5645,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E248" t="inlineStr">
-        <is>
-          <t>11530035</t>
-        </is>
-      </c>
+      <c r="E248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" t="n">
@@ -6374,11 +5666,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E249" t="inlineStr">
-        <is>
-          <t>11530035</t>
-        </is>
-      </c>
+      <c r="E249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -6399,11 +5687,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E250" t="inlineStr">
-        <is>
-          <t>87714295</t>
-        </is>
-      </c>
+      <c r="E250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" t="n">
@@ -6424,11 +5708,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E251" t="inlineStr">
-        <is>
-          <t>87714295</t>
-        </is>
-      </c>
+      <c r="E251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -6470,11 +5750,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E253" t="inlineStr">
-        <is>
-          <t>37529504</t>
-        </is>
-      </c>
+      <c r="E253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" t="n">
@@ -6495,11 +5771,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E254" t="inlineStr">
-        <is>
-          <t>37529504</t>
-        </is>
-      </c>
+      <c r="E254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" t="n">
@@ -6583,11 +5855,7 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E258" t="inlineStr">
-        <is>
-          <t>622809686</t>
-        </is>
-      </c>
+      <c r="E258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -6671,11 +5939,7 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E262" t="inlineStr">
-        <is>
-          <t>015253120932</t>
-        </is>
-      </c>
+      <c r="E262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -6717,11 +5981,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E264" t="inlineStr">
-        <is>
-          <t>643576404</t>
-        </is>
-      </c>
+      <c r="E264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" t="n">
@@ -6742,11 +6002,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E265" t="inlineStr">
-        <is>
-          <t>643576404</t>
-        </is>
-      </c>
+      <c r="E265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" t="n">
@@ -6767,11 +6023,7 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E266" t="inlineStr">
-        <is>
-          <t>015202080274</t>
-        </is>
-      </c>
+      <c r="E266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -6792,11 +6044,7 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E267" t="inlineStr">
-        <is>
-          <t>015202080274</t>
-        </is>
-      </c>
+      <c r="E267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" t="n">
@@ -6817,11 +6065,7 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E268" t="inlineStr">
-        <is>
-          <t>015202080274</t>
-        </is>
-      </c>
+      <c r="E268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" t="n">
@@ -6842,11 +6086,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E269" t="inlineStr">
-        <is>
-          <t>015202080274</t>
-        </is>
-      </c>
+      <c r="E269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" t="n">
@@ -6867,11 +6107,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E270" t="inlineStr">
-        <is>
-          <t>015202080274</t>
-        </is>
-      </c>
+      <c r="E270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" t="n">
@@ -6892,11 +6128,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E271" t="inlineStr">
-        <is>
-          <t>25305913</t>
-        </is>
-      </c>
+      <c r="E271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" t="n">
@@ -6938,11 +6170,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E273" t="inlineStr">
-        <is>
-          <t>015735210305</t>
-        </is>
-      </c>
+      <c r="E273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" t="n">
@@ -7005,11 +6233,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E276" t="inlineStr">
-        <is>
-          <t>88740045</t>
-        </is>
-      </c>
+      <c r="E276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" t="n">
@@ -7030,11 +6254,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E277" t="inlineStr">
-        <is>
-          <t>88740045</t>
-        </is>
-      </c>
+      <c r="E277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" t="n">
@@ -7055,11 +6275,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E278" t="inlineStr">
-        <is>
-          <t>88740045</t>
-        </is>
-      </c>
+      <c r="E278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" t="n">
@@ -7080,11 +6296,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E279" t="inlineStr">
-        <is>
-          <t>88740045</t>
-        </is>
-      </c>
+      <c r="E279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" t="n">
@@ -7105,11 +6317,7 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E280" t="inlineStr">
-        <is>
-          <t>88740045</t>
-        </is>
-      </c>
+      <c r="E280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" t="n">
@@ -7130,11 +6338,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E281" t="inlineStr">
-        <is>
-          <t>015110782399</t>
-        </is>
-      </c>
+      <c r="E281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" t="n">
@@ -7176,11 +6380,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E283" t="inlineStr">
-        <is>
-          <t>681190908</t>
-        </is>
-      </c>
+      <c r="E283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" t="n">
@@ -7201,11 +6401,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E284" t="inlineStr">
-        <is>
-          <t>015908442447 oder 015908420126</t>
-        </is>
-      </c>
+      <c r="E284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" t="n">
@@ -7226,11 +6422,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E285" t="inlineStr">
-        <is>
-          <t>656809351</t>
-        </is>
-      </c>
+      <c r="E285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" t="n">
@@ -7251,11 +6443,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E286" t="inlineStr">
-        <is>
-          <t>03683967</t>
-        </is>
-      </c>
+      <c r="E286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" t="n">
@@ -7276,11 +6464,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E287" t="inlineStr">
-        <is>
-          <t>676867604</t>
-        </is>
-      </c>
+      <c r="E287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" t="n">
@@ -7301,11 +6485,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E288" t="inlineStr">
-        <is>
-          <t>676867604</t>
-        </is>
-      </c>
+      <c r="E288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" t="n">
@@ -7347,11 +6527,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E290" t="inlineStr">
-        <is>
-          <t>630730160</t>
-        </is>
-      </c>
+      <c r="E290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" t="n">
@@ -7393,11 +6569,7 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E292" t="inlineStr">
-        <is>
-          <t>664148356</t>
-        </is>
-      </c>
+      <c r="E292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" t="n">
@@ -7418,11 +6590,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E293" t="inlineStr">
-        <is>
-          <t>664148356</t>
-        </is>
-      </c>
+      <c r="E293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" t="n">
@@ -7464,11 +6632,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E295" t="inlineStr">
-        <is>
-          <t>015779624907</t>
-        </is>
-      </c>
+      <c r="E295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" t="n">
@@ -7489,11 +6653,7 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E296" t="inlineStr">
-        <is>
-          <t>29170909</t>
-        </is>
-      </c>
+      <c r="E296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" t="n">
@@ -7514,11 +6674,7 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E297" t="inlineStr">
-        <is>
-          <t>29170909</t>
-        </is>
-      </c>
+      <c r="E297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" t="n">
@@ -7560,11 +6716,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E299" t="inlineStr">
-        <is>
-          <t>655282818</t>
-        </is>
-      </c>
+      <c r="E299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" t="n">

--- a/RealProject/kids_parents_from_kids_debug.xlsx
+++ b/RealProject/kids_parents_from_kids_debug.xlsx
@@ -731,7 +731,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>623914891</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -752,7 +756,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>016097264718</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -773,7 +781,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>015782364891</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -836,7 +848,11 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>01608531784</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -899,7 +915,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>01637020882</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -920,7 +940,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>01637020882</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -941,7 +965,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>01637020882</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -962,7 +990,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>630323444</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1004,7 +1036,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>015774239272</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1025,7 +1061,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>01636052152</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1046,7 +1086,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>644280857</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1067,7 +1111,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>01627270413</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1088,7 +1136,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>01627270413</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1109,7 +1161,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>632334540</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1172,7 +1228,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>015778648500</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1193,7 +1253,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>015778648500</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1214,7 +1278,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>01629347971</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1235,7 +1303,11 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>33561831</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1256,7 +1328,11 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>684608600</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1277,7 +1353,11 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>33561831</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1298,7 +1378,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>015755184201</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1319,7 +1403,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>631130470</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1340,7 +1428,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>88757701</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1424,7 +1516,11 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>83039184</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1445,7 +1541,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>621205280</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1466,7 +1566,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>015252615611</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1487,7 +1591,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>015202764625</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1508,7 +1616,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr"/>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>49137956</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1529,7 +1641,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr"/>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>49137956</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1550,7 +1666,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr"/>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>015731354679</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1571,7 +1691,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr"/>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>015731354679</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1592,7 +1716,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr"/>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>015731354679</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1697,7 +1825,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr"/>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>015751704161</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -1718,7 +1850,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr"/>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>648075411</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -1739,7 +1875,11 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr"/>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>648075411</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -1760,7 +1900,11 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr"/>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>648075411</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -1781,7 +1925,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr"/>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>015228267087</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -1802,7 +1950,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr"/>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>015228267087</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -1823,7 +1975,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr"/>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>015228267087</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -1844,7 +2000,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr"/>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>015228267087</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -1865,7 +2025,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr"/>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>620912784</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -1886,7 +2050,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr"/>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>82012638</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -1907,7 +2075,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr"/>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>86624581</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -1928,7 +2100,11 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr"/>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>015228127376</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -1949,7 +2125,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr"/>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>015737878177</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -1970,7 +2150,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr"/>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>015737878177</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -1991,7 +2175,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr"/>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>73515681</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -2012,7 +2200,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr"/>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>73515681</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -2033,7 +2225,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr"/>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>01608531784</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -2054,7 +2250,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr"/>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>015758484473</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -2075,7 +2275,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr"/>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>015758484473</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -2096,7 +2300,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr"/>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>015773665575</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -2117,7 +2325,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr"/>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>015773665575</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -2138,7 +2350,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr"/>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>015773665575</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -2159,7 +2375,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr"/>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>78354446</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -2172,7 +2392,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Said Chochouh und Ouafae Barzizoui</t>
+          <t>Said Chochouh</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2193,7 +2413,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Said Chochouh und Ouafae Barzizoui</t>
+          <t>Said Chochouh</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2222,7 +2442,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr"/>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>72268205</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -2243,7 +2467,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr"/>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>72268205</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -2264,7 +2492,11 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr"/>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>72001140</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -2285,7 +2517,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr"/>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>72001140</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -2306,7 +2542,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr"/>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>72001140</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -2327,7 +2567,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr"/>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>657818946</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -2348,7 +2592,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr"/>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>657818946</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -2369,7 +2617,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr"/>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>738667380</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -2390,7 +2642,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr"/>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>738667380</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -2411,7 +2667,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr"/>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>738667380</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -2432,7 +2692,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr"/>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>015255709798</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -2453,7 +2717,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr"/>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>015255709798</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -2495,7 +2763,11 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr"/>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>015903020809</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -2516,7 +2788,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr"/>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>015903020809</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -2537,7 +2813,11 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr"/>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>015903020809</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -2558,7 +2838,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr"/>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>58638258</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -2579,7 +2863,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr"/>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>58638258</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -2600,7 +2888,11 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr"/>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>6 24640578</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -2621,7 +2913,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr"/>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>6 24640578</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -2642,7 +2938,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr"/>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>015906390487</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -2663,7 +2963,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr"/>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>015228352331</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -2684,7 +2988,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr"/>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>015228352331</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -2726,7 +3034,11 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr"/>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>51413553</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -2768,7 +3080,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr"/>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>621609954</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -2789,7 +3105,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr"/>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>01628501395</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -2810,7 +3130,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr"/>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>01628501395</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -2831,7 +3155,11 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr"/>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>015208548606</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -2852,7 +3180,11 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr"/>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>015208548606</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -2936,7 +3268,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E119" t="inlineStr"/>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>01637884674</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -2957,7 +3293,11 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E120" t="inlineStr"/>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>01637884674</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -2978,7 +3318,11 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E121" t="inlineStr"/>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>01634522399</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -2999,7 +3343,11 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E122" t="inlineStr"/>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>01634522399</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -3020,7 +3368,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E123" t="inlineStr"/>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>01633904259</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -3041,7 +3393,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E124" t="inlineStr"/>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>015771964912</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -3062,7 +3418,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E125" t="inlineStr"/>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>015755280532</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -3083,7 +3443,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E126" t="inlineStr"/>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>015755280532</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -3188,7 +3552,11 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E131" t="inlineStr"/>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>01607918</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -3272,7 +3640,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E135" t="inlineStr"/>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>630112288</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -3293,7 +3665,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E136" t="inlineStr"/>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>630112288</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -3314,7 +3690,11 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E137" t="inlineStr"/>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>86253175 / Vater 015731752857</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -3335,7 +3715,11 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E138" t="inlineStr"/>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>86253175 / Vater 015731752857</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -3356,7 +3740,11 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E139" t="inlineStr"/>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>682392891 / 666894717</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -3377,7 +3765,11 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E140" t="inlineStr"/>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>682392891 / 666894717</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -3398,7 +3790,11 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E141" t="inlineStr"/>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>682392891 / 666894717</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -3419,7 +3815,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E142" t="inlineStr"/>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>78670630</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -3440,7 +3840,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E143" t="inlineStr"/>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>78670630</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -3461,7 +3865,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E144" t="inlineStr"/>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>015215810333</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -3482,7 +3890,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E145" t="inlineStr"/>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>015215810333</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -3503,7 +3915,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E146" t="inlineStr"/>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>015228266960</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -3524,7 +3940,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E147" t="inlineStr"/>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>015228266960</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -3545,7 +3965,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E148" t="inlineStr"/>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>015228266960</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -3566,7 +3990,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E149" t="inlineStr"/>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>94388219</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -3608,7 +4036,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E151" t="inlineStr"/>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>82665527</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -3650,7 +4082,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E153" t="inlineStr"/>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>18007458</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -3671,7 +4107,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E154" t="inlineStr"/>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>01607598117</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -3692,7 +4132,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E155" t="inlineStr"/>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>01607598117</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -3734,7 +4178,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E157" t="inlineStr"/>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>03375753</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -3755,7 +4203,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E158" t="inlineStr"/>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>03375753</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -3776,7 +4228,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E159" t="inlineStr"/>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>33839254</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -3797,7 +4253,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E160" t="inlineStr"/>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>33839254</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -3818,7 +4278,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E161" t="inlineStr"/>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>015735741208</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -3860,7 +4324,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E163" t="inlineStr"/>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>01629136240</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -3881,7 +4349,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E164" t="inlineStr"/>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>680895592</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -3902,7 +4374,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E165" t="inlineStr"/>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>680895592</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -3965,7 +4441,11 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E168" t="inlineStr"/>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>8817832</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -3986,7 +4466,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E169" t="inlineStr"/>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>015231704789</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -4007,7 +4491,11 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E170" t="inlineStr"/>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>015730836942</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -4028,7 +4516,11 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E171" t="inlineStr"/>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>622047214</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -4049,7 +4541,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E172" t="inlineStr"/>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>015901163595</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -4070,7 +4566,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E173" t="inlineStr"/>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>015901163595</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -4091,7 +4591,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E174" t="inlineStr"/>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>92011709</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -4112,7 +4616,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E175" t="inlineStr"/>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>92011709</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -4133,7 +4641,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E176" t="inlineStr"/>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>92011709</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -4175,7 +4687,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E178" t="inlineStr"/>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>656478038</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -4196,7 +4712,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E179" t="inlineStr"/>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>656478038</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -4280,7 +4800,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E183" t="inlineStr"/>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>33641335</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -4301,7 +4825,11 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E184" t="inlineStr"/>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>29489957</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -4343,7 +4871,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E186" t="inlineStr"/>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>01623602124 / 652977162</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -4364,7 +4896,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E187" t="inlineStr"/>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>01623602124 / 652977162</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -4385,7 +4921,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E188" t="inlineStr"/>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>01629748646</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -4406,7 +4946,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E189" t="inlineStr"/>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>72585043</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -4427,7 +4971,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E190" t="inlineStr"/>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>72585043</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -4448,7 +4996,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E191" t="inlineStr"/>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>662279838</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -4469,7 +5021,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E192" t="inlineStr"/>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>015771992141 / 81037035</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -4490,7 +5046,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E193" t="inlineStr"/>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>015771992141 / 81037035</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -4511,7 +5071,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E194" t="inlineStr"/>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>28394342</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -4532,7 +5096,11 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E195" t="inlineStr"/>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>01605212145</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -4553,7 +5121,11 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E196" t="inlineStr"/>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>01632059013</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -4574,7 +5146,11 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E197" t="inlineStr"/>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>01632059013</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -4658,7 +5234,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E201" t="inlineStr"/>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>015738339240</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -4679,7 +5259,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E202" t="inlineStr"/>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>015738339240</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -4742,7 +5326,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E205" t="inlineStr"/>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>73126230</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -4763,7 +5351,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E206" t="inlineStr"/>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>73126230</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -4805,7 +5397,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E208" t="inlineStr"/>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>015174457532</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -4826,7 +5422,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E209" t="inlineStr"/>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>78015492</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -4847,7 +5447,11 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E210" t="inlineStr"/>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>78015492</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -4868,7 +5472,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E211" t="inlineStr"/>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>79331020</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -4889,7 +5497,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E212" t="inlineStr"/>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>79331020</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -4910,7 +5522,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E213" t="inlineStr"/>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>46917705</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -4952,7 +5568,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E215" t="inlineStr"/>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>46917705</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -5015,7 +5635,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E218" t="inlineStr"/>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>0034632997890</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -5036,7 +5660,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E219" t="inlineStr"/>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>01604263446</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -5057,7 +5685,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E220" t="inlineStr"/>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>14901105</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -5078,7 +5710,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E221" t="inlineStr"/>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>01626576151</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -5099,7 +5735,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E222" t="inlineStr"/>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>14901105</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -5162,7 +5802,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E225" t="inlineStr"/>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>657980622</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -5183,7 +5827,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E226" t="inlineStr"/>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>657980622</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -5204,7 +5852,11 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E227" t="inlineStr"/>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>015906544373</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -5225,7 +5877,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E228" t="inlineStr"/>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>015757071531</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -5246,7 +5902,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E229" t="inlineStr"/>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>645999275</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -5267,7 +5927,11 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E230" t="inlineStr"/>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>645999275</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -5309,7 +5973,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E232" t="inlineStr"/>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>33489258</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -5351,7 +6019,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E234" t="inlineStr"/>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>662743519</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -5393,7 +6065,11 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E236" t="inlineStr"/>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>95631978 / 96670608</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -5414,7 +6090,11 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E237" t="inlineStr"/>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>95631978 / 96670608</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -5435,7 +6115,11 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E238" t="inlineStr"/>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>27377930/78801311</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -5456,7 +6140,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E239" t="inlineStr"/>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>685924977</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -5477,7 +6165,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E240" t="inlineStr"/>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>685924977</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
@@ -5498,7 +6190,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E241" t="inlineStr"/>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>666999685</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -5519,7 +6215,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E242" t="inlineStr"/>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>666999685</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
@@ -5582,7 +6282,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E245" t="inlineStr"/>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>015737806350</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -5645,7 +6349,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E248" t="inlineStr"/>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>11530035</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
@@ -5666,7 +6374,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E249" t="inlineStr"/>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>11530035</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -5687,7 +6399,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E250" t="inlineStr"/>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>87714295</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
@@ -5708,7 +6424,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E251" t="inlineStr"/>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>87714295</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -5750,7 +6470,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E253" t="inlineStr"/>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>37529504</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
@@ -5771,7 +6495,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E254" t="inlineStr"/>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>37529504</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
@@ -5855,7 +6583,11 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E258" t="inlineStr"/>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>622809686</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -5939,7 +6671,11 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E262" t="inlineStr"/>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>015253120932</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -5981,7 +6717,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E264" t="inlineStr"/>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>643576404</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
@@ -6002,7 +6742,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E265" t="inlineStr"/>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>643576404</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
@@ -6023,7 +6767,11 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E266" t="inlineStr"/>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>015202080274</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -6044,7 +6792,11 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E267" t="inlineStr"/>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>015202080274</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
@@ -6065,7 +6817,11 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E268" t="inlineStr"/>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>015202080274</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
@@ -6086,7 +6842,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E269" t="inlineStr"/>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>015202080274</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
@@ -6107,7 +6867,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E270" t="inlineStr"/>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>015202080274</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
@@ -6128,7 +6892,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E271" t="inlineStr"/>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>25305913</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
@@ -6170,7 +6938,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E273" t="inlineStr"/>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>015735210305</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
@@ -6233,7 +7005,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E276" t="inlineStr"/>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>88740045</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
@@ -6254,7 +7030,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E277" t="inlineStr"/>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>88740045</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
@@ -6275,7 +7055,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E278" t="inlineStr"/>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>88740045</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
@@ -6296,7 +7080,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E279" t="inlineStr"/>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>88740045</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
@@ -6317,7 +7105,11 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E280" t="inlineStr"/>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>88740045</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
@@ -6338,7 +7130,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E281" t="inlineStr"/>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>015110782399</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
@@ -6380,7 +7176,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E283" t="inlineStr"/>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>681190908</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
@@ -6401,7 +7201,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E284" t="inlineStr"/>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>015908442447 oder 015908420126</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
@@ -6422,7 +7226,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E285" t="inlineStr"/>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>656809351</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
@@ -6443,7 +7251,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E286" t="inlineStr"/>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>03683967</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
@@ -6464,7 +7276,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E287" t="inlineStr"/>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>676867604</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
@@ -6485,7 +7301,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E288" t="inlineStr"/>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>676867604</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
@@ -6527,7 +7347,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E290" t="inlineStr"/>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>630730160</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
@@ -6569,7 +7393,11 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E292" t="inlineStr"/>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>664148356</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
@@ -6590,7 +7418,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E293" t="inlineStr"/>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>664148356</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
@@ -6632,7 +7464,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E295" t="inlineStr"/>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>015779624907</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
@@ -6653,7 +7489,11 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E296" t="inlineStr"/>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>29170909</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
@@ -6674,7 +7514,11 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E297" t="inlineStr"/>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>29170909</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
@@ -6716,7 +7560,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E299" t="inlineStr"/>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>655282818</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
